--- a/result_zipcode_analyze.xlsx
+++ b/result_zipcode_analyze.xlsx
@@ -1,30 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\newPython\projects\Kmeans\KmeansCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeonhyeongjun/PycharmProjects/kmeans/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D51C07-61AA-AB47-9D2D-C2869E84F8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12348"/>
+    <workbookView xWindow="30020" yWindow="2840" windowWidth="25520" windowHeight="16700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>DRIVER</t>
   </si>
@@ -284,17 +294,30 @@
   <si>
     <t>총합 처리
  보정치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한달 간 초과 물량 비용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한달 간 기사 고용비용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 소요 비용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ ;[Red]\-0\ "/>
+    <numFmt numFmtId="177" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,13 +342,28 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -342,7 +380,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -353,6 +391,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -634,20 +681,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="4" max="4" width="14.3984375" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="11" max="11" width="75" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="36">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -664,7 +713,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -681,7 +730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -698,7 +747,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -715,7 +764,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -741,7 +790,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -764,7 +813,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -784,7 +833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -804,7 +853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -821,7 +870,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -838,7 +887,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -855,7 +904,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -872,7 +921,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -889,7 +938,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -906,7 +955,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -929,7 +978,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -952,7 +1001,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -975,7 +1024,7 @@
         <v>-183</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -997,8 +1046,11 @@
       <c r="L18">
         <v>-1281000</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="N18">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1021,7 +1073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1038,7 +1090,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -1055,7 +1107,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1072,7 +1124,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1095,7 +1147,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1118,7 +1170,7 @@
         <v>25.617647059999999</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1138,7 +1190,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -1155,7 +1207,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -1172,7 +1224,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -1189,7 +1241,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -1206,7 +1258,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -1222,8 +1274,21 @@
       <c r="E30">
         <v>23</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="K30" t="s">
+        <v>87</v>
+      </c>
+      <c r="L30" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="M30">
+        <v>68</v>
+      </c>
+      <c r="N30" s="5">
+        <f>L30*M30</f>
+        <v>204000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -1239,8 +1304,24 @@
       <c r="E31">
         <v>26</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="K31" t="s">
+        <v>86</v>
+      </c>
+      <c r="L31" s="4">
+        <v>1281000</v>
+      </c>
+      <c r="M31">
+        <v>3</v>
+      </c>
+      <c r="N31" s="4">
+        <v>30</v>
+      </c>
+      <c r="O31" s="5">
+        <f>L31*M31*N31</f>
+        <v>115290000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -1256,8 +1337,17 @@
       <c r="E32">
         <v>23</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="K32" t="s">
+        <v>88</v>
+      </c>
+      <c r="L32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="6">
+        <f>N30+O31</f>
+        <v>319290000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -1273,8 +1363,10 @@
       <c r="E33">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="L33" s="4"/>
+      <c r="N33" s="4"/>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -1290,8 +1382,10 @@
       <c r="E34">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="L34" s="4"/>
+      <c r="N34" s="4"/>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -1307,8 +1401,9 @@
       <c r="E35">
         <v>28</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -1325,7 +1420,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -1342,7 +1437,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -1359,7 +1454,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -1376,7 +1471,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -1393,7 +1488,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -1410,7 +1505,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>57</v>
       </c>
@@ -1427,7 +1522,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -1444,7 +1539,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
         <v>59</v>
       </c>
@@ -1461,7 +1556,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -1478,7 +1573,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
         <v>61</v>
       </c>
@@ -1495,7 +1590,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
         <v>62</v>
       </c>
@@ -1512,7 +1607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
         <v>63</v>
       </c>
@@ -1529,7 +1624,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -1546,7 +1641,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>65</v>
       </c>
@@ -1563,7 +1658,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>66</v>
       </c>
@@ -1580,7 +1675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>67</v>
       </c>
@@ -1597,7 +1692,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>68</v>
       </c>
@@ -1614,7 +1709,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>69</v>
       </c>
@@ -1631,7 +1726,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>70</v>
       </c>
@@ -1648,7 +1743,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>71</v>
       </c>
@@ -1665,7 +1760,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -1682,7 +1777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -1699,7 +1794,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>74</v>
       </c>
@@ -1716,7 +1811,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>75</v>
       </c>
@@ -1733,7 +1828,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>76</v>
       </c>
@@ -1750,7 +1845,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -1767,7 +1862,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>78</v>
       </c>
@@ -1784,7 +1879,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>79</v>
       </c>
@@ -1801,7 +1896,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>80</v>
       </c>
@@ -1818,7 +1913,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -1835,7 +1930,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -1852,7 +1947,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>83</v>
       </c>
@@ -1869,7 +1964,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -1886,7 +1981,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:5">
       <c r="E70">
         <v>1742</v>
       </c>
